--- a/DATA_goal/Junction_Flooding_74.xlsx
+++ b/DATA_goal/Junction_Flooding_74.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,14 +468,14 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41506.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.15</v>
+        <v>1.52</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.35</v>
+        <v>0.63</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.45</v>
+        <v>0.24</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>81.84999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.85</v>
+        <v>0.98</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41506.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.55</v>
+        <v>0.55</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>56.77</v>
+        <v>5.68</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41506.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.82</v>
+        <v>2.38</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>52.04</v>
+        <v>5.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.66</v>
+        <v>4.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.35</v>
+        <v>1.83</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.17</v>
+        <v>6.82</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.91</v>
+        <v>2.89</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.35</v>
+        <v>1.34</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.9</v>
+        <v>2.09</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.24</v>
+        <v>2.22</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.52</v>
+        <v>2.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>278.8</v>
+        <v>27.88</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>52.48</v>
+        <v>5.25</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.18</v>
+        <v>3.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.86</v>
+        <v>3.49</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.78</v>
+        <v>1.38</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.33</v>
+        <v>2.23</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.13</v>
+        <v>6.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.47</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41506.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.95</v>
+        <v>1.69</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.06</v>
+        <v>3.71</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.34</v>
+        <v>3.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>53.81</v>
+        <v>5.38</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.57</v>
+        <v>2.06</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.88</v>
+        <v>1.49</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.85</v>
+        <v>1.58</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>196.41</v>
+        <v>19.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.49</v>
+        <v>3.75</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.1</v>
+        <v>2.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.57</v>
+        <v>2.66</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.9</v>
+        <v>1.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.18</v>
+        <v>4.92</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.28</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41506.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>20.73</v>
+        <v>2.07</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>45.26</v>
+        <v>4.53</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>37.15</v>
+        <v>3.72</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>63.47</v>
+        <v>6.35</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>25.13</v>
+        <v>2.51</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.55</v>
+        <v>1.16</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.16</v>
+        <v>1.82</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.32</v>
+        <v>1.63</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>23.12</v>
+        <v>2.31</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>241.04</v>
+        <v>24.1</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>45.63</v>
+        <v>4.56</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>30.68</v>
+        <v>3.07</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>31.38</v>
+        <v>3.14</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.3</v>
+        <v>1.93</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>57.76</v>
+        <v>5.78</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>18.7</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41506.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>33.37</v>
+        <v>3.34</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>27.35</v>
+        <v>2.74</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>48.74</v>
+        <v>4.87</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.25</v>
+        <v>1.42</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>175.81</v>
+        <v>17.58</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>33.7</v>
+        <v>3.37</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>22.63</v>
+        <v>2.26</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>23.84</v>
+        <v>2.38</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>44.45</v>
+        <v>4.45</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41506.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>18.65</v>
+        <v>1.86</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>40.7</v>
+        <v>4.07</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>33.44</v>
+        <v>3.34</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>57.03</v>
+        <v>5.7</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.6</v>
+        <v>2.26</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>17.35</v>
+        <v>1.73</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>20.81</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>215.86</v>
+        <v>21.59</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>41</v>
+        <v>4.1</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>27.61</v>
+        <v>2.76</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>28.11</v>
+        <v>2.81</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.65</v>
+        <v>1.07</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>17.31</v>
+        <v>1.73</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>51.85</v>
+        <v>5.19</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41506.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>32.35</v>
+        <v>3.24</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>26.56</v>
+        <v>2.66</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>46.91</v>
+        <v>4.69</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.25</v>
+        <v>0.83</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.95</v>
+        <v>1.19</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>170.08</v>
+        <v>17.01</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>32.64</v>
+        <v>3.26</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>21.96</v>
+        <v>2.2</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>22.93</v>
+        <v>2.29</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>42.75</v>
+        <v>4.28</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41506.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>29.43</v>
+        <v>2.94</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>24.16</v>
+        <v>2.42</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>42.31</v>
+        <v>4.23</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>12.55</v>
+        <v>1.26</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>154.05</v>
+        <v>15.41</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>29.68</v>
+        <v>2.97</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>19.97</v>
+        <v>2</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>20.7</v>
+        <v>2.07</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>38.52</v>
+        <v>3.85</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_74.xlsx
+++ b/DATA_goal/Junction_Flooding_74.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,31 +652,31 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41506.34027777778</v>
+        <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0.44</v>
@@ -685,1009 +685,489 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.18</v>
+        <v>8.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.15</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41506.34722222222</v>
+        <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.98</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>5.68</v>
+        <v>11.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.18</v>
+        <v>2.2</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.73</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.89</v>
+        <v>1.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.61</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.72</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.97</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.46</v>
+        <v>2.57</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41506.35416666666</v>
+        <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="4" t="n">
         <v>2.38</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>5.2</v>
-      </c>
       <c r="F4" s="4" t="n">
-        <v>4.27</v>
+        <v>1.93</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.82</v>
+        <v>3.29</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.89</v>
+        <v>1.32</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.63</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.92</v>
+        <v>0.86</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.09</v>
+        <v>0.95</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.22</v>
+        <v>1.03</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.88</v>
+        <v>0.86</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.65</v>
+        <v>1.2</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.57</v>
+        <v>0.73</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.88</v>
+        <v>12.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.25</v>
+        <v>2.42</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.74</v>
+        <v>0.8</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.52</v>
+        <v>1.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.89</v>
+        <v>0.88</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.49</v>
+        <v>1.7</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.51</v>
+        <v>0.68</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.38</v>
+        <v>0.65</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.62</v>
+        <v>0.77</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.23</v>
+        <v>1.04</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.21</v>
+        <v>3.03</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.47</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.15</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41506.36111111111</v>
+        <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.69</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.71</v>
+        <v>2.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.03</v>
+        <v>1.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.71</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.38</v>
+        <v>2.99</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.06</v>
+        <v>1.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.55</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.75</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.83</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.58</v>
+        <v>0.9</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.12</v>
+        <v>0.64</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.64</v>
+        <v>10.71</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.75</v>
+        <v>2.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.24</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.51</v>
+        <v>1.4</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.76</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.66</v>
+        <v>1.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.66</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.59</v>
+        <v>0.9</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.92</v>
+        <v>2.74</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41506.36805555555</v>
+        <v>44781.95137731481</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.07</v>
+        <v>5.16</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.56</v>
+        <v>3.87</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.53</v>
+        <v>11.41</v>
       </c>
       <c r="F6" s="4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AC6" s="4" t="n">
         <v>3.72</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AD6" s="4" t="n">
-        <v>1.93</v>
+        <v>5.02</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.78</v>
+        <v>17.04</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.87</v>
+        <v>2.3</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41506.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41506.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41506.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41506.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41506.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>30.49</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>25.05</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>43.17</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>159.77</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>30.71</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>39.27</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>12.6</v>
+        <v>4.65</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_74.xlsx
+++ b/DATA_goal/Junction_Flooding_74.xlsx
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.16</v>
+        <v>21.58</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.32</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.78</v>
+        <v>27.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.28</v>
+        <v>112.83</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.2</v>
+        <v>22.04</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.14</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.05</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.57</v>
+        <v>25.68</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.38</v>
+        <v>23.85</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.29</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.29</v>
+        <v>32.91</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.15</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.02</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.43</v>
+        <v>124.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.42</v>
+        <v>24.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.7</v>
+        <v>16.96</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.03</v>
+        <v>30.26</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.78</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.99</v>
+        <v>29.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.71</v>
+        <v>107.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.98</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.74</v>
+        <v>27.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_74.xlsx
+++ b/DATA_goal/Junction_Flooding_74.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
         <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.42</v>
+        <v>7.422</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.727</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.58</v>
+        <v>21.577</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.32</v>
+        <v>17.319</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.18</v>
+        <v>7.179</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>27.76</v>
+        <v>27.758</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.99</v>
+        <v>11.987</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.73</v>
+        <v>7.728</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.6</v>
+        <v>8.602</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.49</v>
+        <v>9.488</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>3.06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.81</v>
+        <v>10.806</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.743</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.231</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.646</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.83</v>
+        <v>112.833</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.04</v>
+        <v>22.037</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.4</v>
+        <v>14.397</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.07</v>
+        <v>8.068</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.065</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.17</v>
+        <v>15.171</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.14</v>
+        <v>6.138</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.05</v>
+        <v>6.051</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.2</v>
+        <v>7.198</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.74</v>
+        <v>9.743</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>25.68</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.43</v>
+        <v>4.432</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.81</v>
+        <v>8.808999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,46 +863,46 @@
         <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.85</v>
+        <v>10.853</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.17</v>
+        <v>8.169</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.85</v>
+        <v>23.845</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.29</v>
+        <v>19.293</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.15</v>
+        <v>8.148</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>32.91</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.21</v>
+        <v>13.209</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.29</v>
+        <v>6.288</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.59</v>
+        <v>8.593</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>9.525</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.34</v>
+        <v>10.343</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.15</v>
+        <v>3.153</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>12.02</v>
@@ -911,55 +911,55 @@
         <v>7.34</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.29</v>
+        <v>124.286</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.18</v>
+        <v>24.178</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16</v>
+        <v>16.001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.76</v>
+        <v>8.760999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.148</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.96</v>
+        <v>16.959</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.84</v>
+        <v>6.844</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.49</v>
+        <v>6.493</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.66</v>
+        <v>7.665</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.44</v>
+        <v>10.442</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>30.26</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.75</v>
+        <v>4.748</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.77</v>
+        <v>9.771000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.65</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_74.xlsx
+++ b/DATA_goal/Junction_Flooding_74.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -967,103 +967,207 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>9.457000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.11</v>
+        <v>7.107</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.78</v>
+        <v>20.783</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.83</v>
+        <v>16.833</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.13</v>
+        <v>7.133</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.85</v>
+        <v>29.852</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.5</v>
+        <v>11.499</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.47</v>
+        <v>5.466</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.48</v>
+        <v>7.479</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.31</v>
+        <v>8.307</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.99</v>
+        <v>8.989000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.71</v>
+        <v>2.709</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.49</v>
+        <v>10.489</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.38</v>
+        <v>6.381</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.126</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.454</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.12</v>
+        <v>107.124</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.06</v>
+        <v>21.059</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.98</v>
+        <v>13.976</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>7.61</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.994</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.07</v>
+        <v>15.067</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.97</v>
+        <v>5.973</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.63</v>
+        <v>5.628</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.63</v>
+        <v>6.627</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.032999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.42</v>
+        <v>27.416</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>4.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.52</v>
+        <v>8.519</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.95137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.65</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_74.xlsx
+++ b/DATA_goal/Junction_Flooding_74.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -967,207 +967,103 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.457000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.107</v>
+        <v>7.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.783</v>
+        <v>20.78</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.833</v>
+        <v>16.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.133</v>
+        <v>7.13</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.852</v>
+        <v>29.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.499</v>
+        <v>11.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.466</v>
+        <v>5.47</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.479</v>
+        <v>7.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.307</v>
+        <v>8.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.989000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.709</v>
+        <v>2.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.519</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.489</v>
+        <v>10.49</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.381</v>
+        <v>6.38</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.126</v>
+        <v>0.13</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.454</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.124</v>
+        <v>107.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.059</v>
+        <v>21.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.941</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.976</v>
+        <v>13.98</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>7.61</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.994</v>
+        <v>0.99</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.067</v>
+        <v>15.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.973</v>
+        <v>5.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.628</v>
+        <v>5.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.627</v>
+        <v>6.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.032999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.416</v>
+        <v>27.42</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>4.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.519</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.65</v>
+        <v>8.52</v>
       </c>
     </row>
   </sheetData>
